--- a/excel/upload/test.xlsx
+++ b/excel/upload/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ownCloud\VOZP\200605 intranet telefony\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\telefony\excel\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,6 +22,7 @@
     <definedName name="ExterníData_1" localSheetId="1">'nově přidané'!$A$1:$J$1</definedName>
     <definedName name="ExterníData_1" localSheetId="2">smazané!$A$1:$J$1</definedName>
     <definedName name="ExterníData_1" localSheetId="3">změny!$A$1:$J$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">aktuální!$A$1:$I$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -954,7 +955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -977,21 +978,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1059,7 +1094,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,30 +1177,6 @@
     <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1191,6 +1201,12 @@
     <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,6 +1215,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1517,1191 +1542,1193 @@
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="K2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
         <f ca="1">NOW()</f>
-        <v>43987.549697685186</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>43998.492881365739</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>702291592</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>6143</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25">
+      <c r="G12" s="23"/>
+      <c r="H12" s="24">
         <v>387783143</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>6108</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="13">
+      <c r="G19" s="10"/>
+      <c r="H19" s="12">
         <v>387783108</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="13" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="13" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="13" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="13" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="13" t="s">
+      <c r="G26" s="10"/>
+      <c r="H26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="34">
         <v>702291574</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="13" t="s">
+      <c r="G28" s="14"/>
+      <c r="H28" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="25" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="13" t="s">
+      <c r="G30" s="14"/>
+      <c r="H30" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="13" t="s">
+      <c r="G31" s="14"/>
+      <c r="H31" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="13" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="13" t="s">
+      <c r="G33" s="10"/>
+      <c r="H33" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="13" t="s">
+      <c r="G34" s="10"/>
+      <c r="H34" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="13" t="s">
+      <c r="G35" s="10"/>
+      <c r="H35" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="13" t="s">
+      <c r="G36" s="10"/>
+      <c r="H36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="13" t="s">
+      <c r="G37" s="10"/>
+      <c r="H37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="50"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="48"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="15">
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="14">
         <v>702291582</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="15">
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="14">
         <v>727887640</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="15">
+      <c r="D41" s="28"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="14">
         <v>727887611</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="15">
+      <c r="D42" s="28"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="14">
         <v>727887611</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="58"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="E44" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="72" t="s">
+      <c r="F44" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="71"/>
-      <c r="H44" s="73" t="s">
+      <c r="G44" s="61"/>
+      <c r="H44" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="67" t="s">
+      <c r="I44" s="57" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="13" t="s">
+      <c r="G45" s="10"/>
+      <c r="H45" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="13" t="s">
+      <c r="G46" s="10"/>
+      <c r="H46" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="13" t="s">
+      <c r="G47" s="14"/>
+      <c r="H47" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48" t="s">
+      <c r="G48" s="45"/>
+      <c r="H48" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="42" t="s">
+      <c r="I48" s="40" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A43:I43"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2764,18 +2791,18 @@
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2904,7 +2931,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="49"/>
+      <c r="D7" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
